--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BieuMauMua.Gmail">Sheet1!$F$10</definedName>
+    <definedName name="BieuMauMua.Gmail">Sheet1!$F$9</definedName>
     <definedName name="BieuMauMua.NgayLapHoaDon">Sheet1!$F$6</definedName>
     <definedName name="BieuMauMua.SoLuong">Sheet1!$C$6</definedName>
     <definedName name="BieuMauMua.TenSanPham">Sheet1!$B$6</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -62,18 +62,6 @@
     <t>Ngày Lập</t>
   </si>
   <si>
-    <t>Hồ chí minh, ngày… tháng…năm20…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hồ chí minh, ngày… tháng…năm20…                 </t>
-  </si>
-  <si>
-    <t>Tài Khoản Lập</t>
-  </si>
-  <si>
-    <t>%BieuMauMua.STT; insert:copystyles</t>
-  </si>
-  <si>
     <t>%BieuMauMua.TenSanPham</t>
   </si>
   <si>
@@ -89,7 +77,10 @@
     <t>%BieuMauMua.NgayLapHoaDon</t>
   </si>
   <si>
-    <t>%BieuMauMua.Gmail</t>
+    <t>%BieuMauMua.STT;insert:copystyles</t>
+  </si>
+  <si>
+    <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
   </si>
 </sst>
 </file>
@@ -258,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -275,10 +266,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,10 +308,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D13"/>
+      <selection activeCell="A8" sqref="A8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,10 +614,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -632,20 +626,20 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
     </row>
@@ -679,22 +673,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,67 +700,54 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A9:D13"/>
+  <mergeCells count="5">
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A8:D12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
+  </si>
+  <si>
+    <t>%TenNguoiLap</t>
+  </si>
+  <si>
+    <t>Tên Khách Hàng</t>
+  </si>
+  <si>
+    <t>Tài Khoản Tạo</t>
+  </si>
+  <si>
+    <t>%TaiKhoan</t>
   </si>
 </sst>
 </file>
@@ -599,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,10 +640,18 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">

--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -62,37 +62,40 @@
     <t>Ngày Lập</t>
   </si>
   <si>
-    <t>%BieuMauMua.TenSanPham</t>
-  </si>
-  <si>
-    <t>%BieuMauMua.SoLuong</t>
+    <t>%BieuMauMua.NgayLapHoaDon</t>
+  </si>
+  <si>
+    <t>%BieuMauMua.STT;insert:copystyles</t>
+  </si>
+  <si>
+    <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
+  </si>
+  <si>
+    <t>%TenNguoiLap</t>
+  </si>
+  <si>
+    <t>Tên Khách Hàng</t>
+  </si>
+  <si>
+    <t>Tài Khoản Tạo</t>
+  </si>
+  <si>
+    <t>%TaiKhoan</t>
+  </si>
+  <si>
+    <t>%BieuMauMua.tensp</t>
+  </si>
+  <si>
+    <t>%BieuMauMua.soluong</t>
+  </si>
+  <si>
+    <t>%BieuMauMua.giaban</t>
+  </si>
+  <si>
+    <t>%TongTien</t>
   </si>
   <si>
     <t>%BieuMauMua.TongTien</t>
-  </si>
-  <si>
-    <t>%BieuMauMua.TongTienHoaDon</t>
-  </si>
-  <si>
-    <t>%BieuMauMua.NgayLapHoaDon</t>
-  </si>
-  <si>
-    <t>%BieuMauMua.STT;insert:copystyles</t>
-  </si>
-  <si>
-    <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
-  </si>
-  <si>
-    <t>%TenNguoiLap</t>
-  </si>
-  <si>
-    <t>Tên Khách Hàng</t>
-  </si>
-  <si>
-    <t>Tài Khoản Tạo</t>
-  </si>
-  <si>
-    <t>%TaiKhoan</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,16 +644,16 @@
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
@@ -693,22 +696,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,12 +719,14 @@
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>

--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>%BieuMauMua.TongTien</t>
+  </si>
+  <si>
+    <t>Mã Đơn Hàng</t>
+  </si>
+  <si>
+    <t>%MaDonHang</t>
   </si>
 </sst>
 </file>
@@ -614,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,8 +669,12 @@
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>

--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauMua.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Công Ty Nguyễn Sơn</t>
   </si>
@@ -83,9 +83,6 @@
     <t>%TaiKhoan</t>
   </si>
   <si>
-    <t>%BieuMauMua.tensp</t>
-  </si>
-  <si>
     <t>%BieuMauMua.soluong</t>
   </si>
   <si>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>%MaDonHang</t>
+  </si>
+  <si>
+    <t>Mã Khách Hàng</t>
+  </si>
+  <si>
+    <t>%MaKhachHang</t>
+  </si>
+  <si>
+    <t>%BieuMauMua.TenSanPham</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,8 +649,12 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
@@ -670,10 +680,10 @@
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,16 +719,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>9</v>
@@ -730,7 +740,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="11"/>
     </row>
